--- a/Documentatie/Acceptatietesten.xlsx
+++ b/Documentatie/Acceptatietesten.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Baqme\Examen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Baqme\Baqme-examen\Baqme-examen\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EDB4B8C-1F9C-401E-8005-58D7080BAB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAABDB9-2A92-4F02-8A76-CE75CB1762D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FBAB6A8D-D650-4E98-9212-901B2AAA8879}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
   <si>
     <t>Test nr.</t>
   </si>
@@ -107,6 +107,48 @@
   </si>
   <si>
     <t>Optioneel</t>
+  </si>
+  <si>
+    <t>Twee lijsten per stad waar fietsen met problemen in lijst 1 staan, en fietsen die geen problemen meer hebben die in de warehouse opgelost moeten worden in lijst 2.</t>
+  </si>
+  <si>
+    <t>Betere layout bedenken voor als er meerdere steden bij komen en het scherm te klein word</t>
+  </si>
+  <si>
+    <t>Ibrahim (php &amp; database query-en) Mark (styling)</t>
+  </si>
+  <si>
+    <t>Een navbar die deels bovenaan het scherm blijft, die altijd een logout knop heeft, een knop om de pagina te refreshen, en ook een menu alleen voor administrators om accounts aan te kunnen passen</t>
+  </si>
+  <si>
+    <t>Ervoor zorgen dat het aanmaken van een account ook daar kan</t>
+  </si>
+  <si>
+    <t>Ibrahim (Data displayen) Mark (Ervoor zorgen dat de displayed data goed overzichtelijk is en aangepast kan worden)</t>
+  </si>
+  <si>
+    <t>De hele webpagina wordt iedere 5 minuten gerefreshed, ook de navigatiebalken. Maar de gebruiker blijft wel ingelogt</t>
+  </si>
+  <si>
+    <t>Zorgen dat alleen maar een gedeelte van de pagina wordt refreshed zodat veranderingen in het account management menu niet gewiped worden</t>
+  </si>
+  <si>
+    <t>Ibrahim</t>
+  </si>
+  <si>
+    <t>Een donkere website met een paar overlappende kleuren van de andere Baqme pagina's. Het is nog maar net te zien dat het om Baqme gaat</t>
+  </si>
+  <si>
+    <t>Een optie om de kleuren lichter te maken (Een light-mode) waar de kleuren wel meer inline zijn met de bestaande websitees</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>8 t/m 12 april 2024</t>
+  </si>
+  <si>
+    <t>Helaas niet aan toe gekomen</t>
   </si>
 </sst>
 </file>
@@ -169,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -181,6 +223,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -199,9 +244,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -239,7 +284,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -345,7 +390,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -487,7 +532,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -495,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE89356A-EEF1-48F2-8FE4-074E88EECF27}">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,29 +576,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="5">
+        <v>45392</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -627,29 +680,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="5">
+        <v>45393</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -675,227 +736,199 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="5">
+        <v>45630</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B42" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="B51" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="1"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="4"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="B52" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B54" s="1"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B55" s="1"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="1"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
